--- a/src/main/webapp/files/backlog.xlsx
+++ b/src/main/webapp/files/backlog.xlsx
@@ -4,51 +4,129 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="22335" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="22425" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coding Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testing Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coding Taker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testing Taker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDR Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,9 +135,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -355,23 +445,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="8" width="10.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="E1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/files/backlog.xlsx
+++ b/src/main/webapp/files/backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="22425" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="22425" windowHeight="6015"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -29,27 +30,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Coding Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testing Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coding Taker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testing Taker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Story</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TDR Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Taker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Taker</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +457,7 @@
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="8" width="10.125" customWidth="1"/>
+    <col min="4" max="8" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -464,25 +465,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
